--- a/General_Documentation/RFID/Breakdown of DLP command codes.xlsx
+++ b/General_Documentation/RFID/Breakdown of DLP command codes.xlsx
@@ -363,9 +363,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -386,6 +383,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,17 +669,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
     <col min="7" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
@@ -687,29 +687,29 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G2" t="s">
@@ -720,7 +720,7 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2">
@@ -729,7 +729,7 @@
       <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>0</v>
       </c>
       <c r="G3" t="s">
@@ -740,10 +740,10 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" t="s">
@@ -754,7 +754,7 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2">
@@ -763,7 +763,7 @@
       <c r="E5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0</v>
       </c>
       <c r="G5" t="s">
@@ -774,10 +774,10 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" t="s">
@@ -788,7 +788,7 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2">
@@ -797,7 +797,7 @@
       <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
@@ -808,10 +808,10 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>1</v>
       </c>
       <c r="G8" t="s">
@@ -822,7 +822,7 @@
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="2">
@@ -831,7 +831,7 @@
       <c r="E9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>0</v>
       </c>
       <c r="G9" t="s">
@@ -842,10 +842,10 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" t="s">
@@ -853,11 +853,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="10"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
@@ -866,12 +866,12 @@
       <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" t="s">
@@ -882,7 +882,7 @@
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="2">
@@ -891,7 +891,7 @@
       <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>0</v>
       </c>
       <c r="G14" t="s">
@@ -902,10 +902,10 @@
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
       <c r="G15" t="s">
@@ -916,7 +916,7 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="2">
@@ -925,7 +925,7 @@
       <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>0</v>
       </c>
       <c r="G16" t="s">
@@ -933,7 +933,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>1</v>
       </c>
       <c r="G17" t="s">
@@ -944,7 +944,7 @@
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="2">
@@ -953,7 +953,7 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>0</v>
       </c>
       <c r="G18" t="s">
@@ -964,7 +964,7 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -972,14 +972,14 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D21" s="2">
@@ -988,7 +988,7 @@
       <c r="E21" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>0</v>
       </c>
       <c r="G21" t="s">
@@ -999,10 +999,10 @@
       <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>1</v>
       </c>
       <c r="G22" t="s">
@@ -1013,7 +1013,7 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2">
@@ -1022,7 +1022,7 @@
       <c r="E23" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>0</v>
       </c>
       <c r="G23" t="s">
@@ -1033,10 +1033,10 @@
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>1</v>
       </c>
       <c r="G24" t="s">
@@ -1050,7 +1050,7 @@
       <c r="E25" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>0</v>
       </c>
       <c r="G25" t="s">
@@ -1058,7 +1058,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>1</v>
       </c>
       <c r="G26" t="s">
@@ -1072,7 +1072,7 @@
       <c r="E27" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>0</v>
       </c>
       <c r="G27" t="s">
@@ -1083,7 +1083,7 @@
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       <c r="A30" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       <c r="A32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       <c r="A33" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       <c r="A34" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       <c r="A35" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       <c r="A36" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       <c r="A37" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       <c r="A38" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       <c r="A39" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       <c r="A40" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       <c r="A41" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>92</v>
       </c>
     </row>
